--- a/biology/Origine et évolution du vivant/Innovations_génétiques/Innovations_génétiques.xlsx
+++ b/biology/Origine et évolution du vivant/Innovations_génétiques/Innovations_génétiques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Innovations_g%C3%A9n%C3%A9tiques</t>
+          <t>Innovations_génétiques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La place qu’occupe le gène sur le chromosome est son locus. Un allèle est une expression différente d’un gène. Ces allèles sont toujours situés à la même place s’ils correspondent à un seul et unique gène.
 Les protéines sont formées d’acides aminés dans un ordre très précis qui détermine leur forme.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Innovations_g%C3%A9n%C3%A9tiques</t>
+          <t>Innovations_génétiques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Allèles
-Exemple : le groupe sanguin A, B, O
+          <t>Allèles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Exemple : le groupe sanguin A, B, O
 L’enzyme responsable de la liaison sur la substance H du N-acétyl est formée à partir d’un gène. Ce gène présente plusieurs expressions : A, B ou O. Chacune de ces expressions s’appelle un allèle. Un seul locus du gène mais différentes expressions de ce gène.
 Ces différentes expressions sont liées à des modifications du génome, donc de la séquence de nucléotides. On dit qu’il y a mutation ponctuelle.
 Différents types de mutations :
@@ -527,9 +544,43 @@
 un taux d'apparition très faible ;
 elles apparaissent au hasard ;
 elles ne sont pas orientées ;
-le polyallélisme peut être important.
-Polyallélisme important
-Exemple : le système HLA (Human Leucocyte Antigen).
+le polyallélisme peut être important.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Innovations_génétiques</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Innovations_g%C3%A9n%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Polymorphisme génique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Polyallélisme important</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Exemple : le système HLA (Human Leucocyte Antigen).
 Il présente un important polyallélisme. On recherche la fréquence des différents allèles d’un gène dans la population. La fréquence de l’allèle A dans une population de n individus est de :
 (nombre de A / nombre total d’allèles) × 100 = [(2 × nombre d’homozygotes + nombre d’hétérozygotes) / 2 × nombre total d’allèles ]
 La répartition dans une population des différents allèles peut être différente. 
@@ -539,52 +590,201 @@
 Un gène peut être polyallélique sans être polymorphe. 
 Exemple : l'enzyme G6PD en Europe.
 On estime qu’un tiers des gènes chez l’homme serait polymorphe.
-Accumulation de mutations et filiation
-Tous les allèles ne sont pas apparus en même temps. Une séquence nucléotidique a été construite, constituant le gène ancestral. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Innovations_génétiques</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Innovations_g%C3%A9n%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Polymorphisme génique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Accumulation de mutations et filiation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tous les allèles ne sont pas apparus en même temps. Une séquence nucléotidique a été construite, constituant le gène ancestral. 
 À partir de ce gène, si l’innovation génétique grâce à une mutation fait apparaître une nouvelle séquence de nucléotides pour ce gène, il y aura une grande similitude avec le gène ancestral.
 Les mutations étant rares et aléatoires, plus le nombre de mutations augmente, plus on s’éloigne avec le temps du gène ancestral. On peut estimer le rapprochement entre populations présentant des mutations semblables. Il y a donc accumulation de mutations avec le temps. On peut donc établir des filiations.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Innovations_g%C3%A9n%C3%A9tiques</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Innovations_g%C3%A9n%C3%A9tiques</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Innovations_génétiques</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Innovations_g%C3%A9n%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Innovations et enrichissement du génome</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les bactéries, on compte à peu près 1 000 à 2 000 gènes. Chez l’homme, on estime qu’il y en a 30 000 à 40 000. Comment le nombre de gènes peut-il augmenter dans un génome ?
-Familles multigéniques
-Gènes à fonction identique
-Exemple 1 : En ce qui concerne le cas de la sécrétion des hormones hypophysaires on retrouve des zones homologues dans les séquences peptidiques donnant naissance aux trois hormones (vasotocine, vasopressine et ocytocine). Il y a eu mutation par « substitution ». Par rapport au gène ancestral présent chez les agnates (−530 Ma) qui n'exprimaient que la Vasotocine codée par [Cys-Tyr-Ile-Gln-Asp-Cys-Pro-Arg-Gly], on constate chez les mammifères à −190 Ma les mutations somatiques suivantes :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Innovations_génétiques</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Innovations_g%C3%A9n%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Innovations et enrichissement du génome</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Familles multigéniques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Gènes à fonction identique</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Exemple 1 : En ce qui concerne le cas de la sécrétion des hormones hypophysaires on retrouve des zones homologues dans les séquences peptidiques donnant naissance aux trois hormones (vasotocine, vasopressine et ocytocine). Il y a eu mutation par « substitution ». Par rapport au gène ancestral présent chez les agnates (−530 Ma) qui n'exprimaient que la Vasotocine codée par [Cys-Tyr-Ile-Gln-Asp-Cys-Pro-Arg-Gly], on constate chez les mammifères à −190 Ma les mutations somatiques suivantes :
 Ocytocine Cys-Tyr-Ile-Gln-Asp-Cys-Pro-Leu-Gly ;
 Vasopressine Cys-Tyr-Phe-Gln-Asp-Cys-Pro-Arg-Gly.
 Ces différences peuvent résulter de différentes duplications et transpositions. Il existe un gène ancestral. Mais les fonctions ne sont pas identiques, à cause de différentes mutations qui ont touché des zones importantes de la protéine.
 Exemple 2 : pour l'hémoglobine, les différents gènes occupent des locus différents, ce sont donc bien des gènes et non des allèles. Tous ces gènes ont la même fonction : synthétiser de l'hémoglobine pour le transport de l'oxygène. Mais l’affinité vis-à-vis de l'oxygène est quelque peu différente. Il existe une grande similitude dans la constitution de ces différents gènes. Certains ont des portions identiques : ce sont des gènes homologues qui dériveraient d'un gène ancestral unique (alpha en l'occurrence). Ils sont donc regroupés dans une même famille de gènes : une famille multigénique où les gènes ont gardé une fonction identique.
-Gènes à fonctions différentes
-Des gènes ont une structure homologue. Ils dérivent donc d'un gène ancestral mais les mutations ont modifié les fonctions et de nouvelles fonctions sont apparues. Comment peuvent se former ces nouveaux gènes ?
-Acquisition de ces nouveautés
-Comment, à partir d'un gène ancestral, peut-on trouver de nouveaux gènes ?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Innovations_génétiques</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Innovations_g%C3%A9n%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Innovations et enrichissement du génome</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Familles multigéniques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Gènes à fonctions différentes</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des gènes ont une structure homologue. Ils dérivent donc d'un gène ancestral mais les mutations ont modifié les fonctions et de nouvelles fonctions sont apparues. Comment peuvent se former ces nouveaux gènes ?
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Innovations_génétiques</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Innovations_g%C3%A9n%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Innovations et enrichissement du génome</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Acquisition de ces nouveautés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comment, à partir d'un gène ancestral, peut-on trouver de nouveaux gènes ?
 Il faut supposer que le gène ancestral se duplique et se transpose sur le même chromosome, soit sur un chromosome différent, par duplications/transpositions : c'est une mutation étendue.
 Ces actions peuvent se répéter dans le temps. Ces mutations aléatoires peuvent avoir lieu sur ces différents gènes et entraîner des fonctions différentes ou conserver la même fonction.
 Duplications, transpositions, mutations peuvent s'accumuler dans le temps.
@@ -593,41 +793,80 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Innovations_g%C3%A9n%C3%A9tiques</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Innovations_g%C3%A9n%C3%A9tiques</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Innovations_génétiques</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Innovations_g%C3%A9n%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Des mutations aux conséquences phénotypiques variées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Conséquences sur le phénotype moléculaire
-Mutation par substitution
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Conséquences sur le phénotype moléculaire</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Mutation par substitution
 Il n'y a aucune modification des acides aminés : c'est une mutation silencieuse.
 Il y a changement d'un seul acide aminé : le gène conserve la même fonction ou bien il acquiert une fonction différente, c'est une mutation faux sens.
 Un changement de nucléotide peut entraîner l'apparition d'un codon stop : c'est une mutation non-sens, la chaîne polypeptidique est plus courte, il peut y avoir perte de la fonction (exemple : le système sanguin).
 Addition ou délétion
-Des mutations décalantes : modifications profondes et importantes qui peuvent entraîner la perte de la fonction.
-Conséquences sur la morphologie
-Exemple : Une mouche adulte. Les larves sont en dessous.
+Des mutations décalantes : modifications profondes et importantes qui peuvent entraîner la perte de la fonction.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Innovations_génétiques</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Innovations_g%C3%A9n%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Des mutations aux conséquences phénotypiques variées</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Conséquences sur la morphologie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Exemple : Une mouche adulte. Les larves sont en dessous.
 Le gène agit en créant son homéoprotéine pour stimuler les cellules qui fabriqueront une aile, une patte. 
 La moindre mutation du gène architecte peut modifier totalement la structure.
 Les gènes homéotiques sont les gènes de développement.
@@ -639,31 +878,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Innovations_g%C3%A9n%C3%A9tiques</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Origine et évolution du vivant/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Innovations_g%C3%A9n%C3%A9tiques</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Innovations_génétiques</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Origine et évolution du vivant/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Innovations_g%C3%A9n%C3%A9tiques</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Devenir de ces mutations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour pouvoir être transmise aux générations suivantes, l’innovation devra absolument être inscrite dans les cellules reproductrices de la personne chez qui la mutation a eu lieu.
 Les facteurs environnementaux entraînent des mutations, et l'action du milieu extérieur vient en parallèle consolider ces innovations ou les détruire, si des fonctions vitales sont perturbées par exemple. Il y a donc un rôle très important de la sélection naturelle qui va permettre le développement ou non de ces innovations génétiques. 
